--- a/Прикладные модели оптимизации/лаб 3 вариант 14.xlsx
+++ b/Прикладные модели оптимизации/лаб 3 вариант 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Цель 1" sheetId="4" r:id="rId1"/>
@@ -144,7 +144,7 @@
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
@@ -352,7 +352,7 @@
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
@@ -514,6 +514,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -644,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -667,9 +670,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,6 +696,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,6 +707,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,11 +895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137920512"/>
-        <c:axId val="261328832"/>
+        <c:axId val="320619520"/>
+        <c:axId val="805188672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137920512"/>
+        <c:axId val="320619520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +909,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="261328832"/>
+        <c:crossAx val="805188672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -908,7 +917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261328832"/>
+        <c:axId val="805188672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +947,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137920512"/>
+        <c:crossAx val="320619520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,23 +1323,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1340,8 +1349,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1399,13 +1408,13 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>12</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
       <c r="E8" s="7">
@@ -1418,13 +1427,13 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>79.999999999999929</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>240.00000000000006</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
@@ -1498,23 +1507,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1524,8 +1533,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1583,16 +1592,16 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>12</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f>SUMPRODUCT(B8:D8,B9:D9)</f>
         <v>4200</v>
       </c>
@@ -1602,13 +1611,13 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>200</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>400.00000000000006</v>
       </c>
       <c r="E9" s="6"/>
@@ -1673,23 +1682,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1699,8 +1708,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1758,16 +1767,16 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>12</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <f>SUMPRODUCT(B8:D8,B9:D9)</f>
         <v>3000</v>
       </c>
@@ -1777,13 +1786,13 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>0</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>200</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
@@ -1849,23 +1858,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1875,27 +1884,27 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>0.15</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>0.2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.05</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f>SUMPRODUCT(B5:D5,B9:D9)</f>
         <v>60</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>60</v>
       </c>
     </row>
@@ -1903,20 +1912,20 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f>SUMPRODUCT(B6:D6,B9:D9)</f>
         <v>26.999999999999993</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>40</v>
       </c>
     </row>
@@ -1928,7 +1937,7 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1939,24 +1948,24 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>12</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>15</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f>SUMPRODUCT(B8:D8,B9:D9)</f>
         <v>4383</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f>D9</f>
         <v>165</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f>-E6</f>
         <v>-26.999999999999993</v>
       </c>
@@ -1965,13 +1974,13 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>8.9999999999999449</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>252.00000000000003</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>165</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -1989,13 +1998,13 @@
         <v>200</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>4365</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>165</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f>-27</f>
         <v>-27</v>
       </c>
@@ -2050,23 +2059,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2076,27 +2085,27 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>0.15</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>0.2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.05</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f>SUMPRODUCT(B5:D5,B9:D9)</f>
         <v>60</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>60</v>
       </c>
     </row>
@@ -2104,20 +2113,20 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f>SUMPRODUCT(B6:D6,B9:D9)</f>
         <v>25.9</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>40</v>
       </c>
     </row>
@@ -2129,7 +2138,7 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2140,24 +2149,24 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>12</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>15</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f>SUMPRODUCT(B8:D8,B9:D9)</f>
         <v>4371</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f>D9</f>
         <v>174</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <f>-E6</f>
         <v>-25.9</v>
       </c>
@@ -2166,13 +2175,13 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>255</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>174</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -2190,13 +2199,13 @@
         <v>200</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>4365</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>165</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f>-27</f>
         <v>-27</v>
       </c>
@@ -2207,7 +2216,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <f>(E8-E10)*(F8-F10)*(G8-G10)</f>
         <v>59.400000000000077</v>
       </c>
@@ -2229,12 +2238,13 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.88671875" bestFit="1" customWidth="1"/>
@@ -2261,23 +2271,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2287,27 +2297,27 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>0.15</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>0.2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.05</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="22">
         <f>SUMPRODUCT(B5:D5,B9:D9)</f>
-        <v>59.75</v>
-      </c>
-      <c r="F5" s="14">
+        <v>60.000000012694436</v>
+      </c>
+      <c r="F5" s="13">
         <v>60</v>
       </c>
     </row>
@@ -2315,20 +2325,20 @@
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>0.2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>0.1</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="22">
         <f>SUMPRODUCT(B6:D6,B9:D9)</f>
-        <v>27.000000000000004</v>
-      </c>
-      <c r="F6" s="14">
+        <v>26.999976559258108</v>
+      </c>
+      <c r="F6" s="13">
         <v>40</v>
       </c>
     </row>
@@ -2340,7 +2350,7 @@
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -2351,40 +2361,40 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>12</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>15</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <f>SUMPRODUCT(B8:D8,B9:D9)</f>
         <v>4365</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f>D9</f>
-        <v>165</v>
-      </c>
-      <c r="G8" s="18">
+        <v>194.99976711591299</v>
+      </c>
+      <c r="G8" s="17">
         <f>-E6</f>
-        <v>-27.000000000000004</v>
+        <v>-26.999976559258108</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="15">
-        <v>10.000000000000011</v>
-      </c>
-      <c r="C9" s="15">
-        <v>249.99999999999997</v>
-      </c>
-      <c r="D9" s="15">
-        <v>165</v>
+      <c r="B9" s="23">
+        <v>14.99976584646973</v>
+      </c>
+      <c r="C9" s="23">
+        <v>240.00023389964161</v>
+      </c>
+      <c r="D9" s="23">
+        <v>194.99976711591299</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>19</v>
@@ -2401,13 +2411,13 @@
         <v>200</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>4365</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>165</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
         <f>-27</f>
         <v>-27</v>
       </c>
@@ -2420,13 +2430,13 @@
       <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>4560</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>400</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>20</v>
       </c>
     </row>
@@ -2438,19 +2448,20 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E15">
         <f>(E8 -E12)^2 + (F8-F12)^2 +(E6-G12)^2</f>
-        <v>93299</v>
+        <v>80099.095154360082</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2458,7 +2469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -2497,18 +2508,18 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="L3">
@@ -2522,7 +2533,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2532,8 +2543,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2633,13 +2644,13 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>12</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
       <c r="E8" s="7">
@@ -2661,13 +2672,13 @@
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>48</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>264</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="6"/>
@@ -2753,8 +2764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2942,7 +2953,8 @@
         <v>24</v>
       </c>
       <c r="B9" s="21">
-        <v>93299</v>
+        <f>'Утопичная точка'!E15</f>
+        <v>80099.095154360082</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>

--- a/Прикладные модели оптимизации/лаб 3 вариант 14.xlsx
+++ b/Прикладные модели оптимизации/лаб 3 вариант 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Цель 1" sheetId="4" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Цель 3" sheetId="8" r:id="rId3"/>
     <sheet name="Многокритериальная задача" sheetId="9" r:id="rId4"/>
     <sheet name="Нэша" sheetId="10" r:id="rId5"/>
-    <sheet name="Утопичная точка" sheetId="11" r:id="rId6"/>
+    <sheet name="Утопическая точка" sheetId="11" r:id="rId6"/>
     <sheet name="Эффективная граница" sheetId="12" r:id="rId7"/>
     <sheet name="Сводная таблица" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Многокритериальная задача'!$B$9:$D$9</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">Нэша!$B$9:$D$9</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'Утопичная точка'!$B$9:$D$9</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Утопическая точка'!$B$9:$D$9</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Цель 1'!$B$9:$D$9</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Цель 2'!$B$9:$D$9</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">'Цель 3'!$B$9:$D$9</definedName>
@@ -61,58 +61,58 @@
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Многокритериальная задача'!$B$9</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">Нэша!$B$9</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Утопичная точка'!$B$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Утопическая точка'!$C$9</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Цель 1'!$B$9</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Цель 2'!$B$9</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Цель 3'!$B$9</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Эффективная граница'!$B$9</definedName>
     <definedName name="solver_lhs10" localSheetId="3" hidden="1">'Многокритериальная задача'!$G$8</definedName>
     <definedName name="solver_lhs10" localSheetId="4" hidden="1">Нэша!$F$8</definedName>
-    <definedName name="solver_lhs10" localSheetId="5" hidden="1">'Утопичная точка'!$G$8</definedName>
+    <definedName name="solver_lhs10" localSheetId="5" hidden="1">'Утопическая точка'!$G$8</definedName>
     <definedName name="solver_lhs11" localSheetId="4" hidden="1">Нэша!$G$8</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Многокритериальная задача'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">Нэша!$B$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Утопичная точка'!$C$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Утопическая точка'!$E$5:$E$6</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Цель 1'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Цель 2'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Цель 3'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Эффективная граница'!$B$9</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Многокритериальная задача'!$D$9</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">Нэша!$C$9</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Утопичная точка'!$D$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Утопическая точка'!$D$9</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Цель 1'!$D$9</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Цель 2'!$D$9</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Цель 3'!$D$9</definedName>
     <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Эффективная граница'!$C$9</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'Многокритериальная задача'!$E$5</definedName>
     <definedName name="solver_lhs4" localSheetId="4" hidden="1">Нэша!$C$9</definedName>
-    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Утопичная точка'!$E$5</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'Утопическая точка'!$E$5</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Цель 1'!$E$5</definedName>
     <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Цель 2'!$E$5</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">'Цель 3'!$E$5</definedName>
     <definedName name="solver_lhs4" localSheetId="6" hidden="1">'Эффективная граница'!$C$9</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">'Многокритериальная задача'!$E$6</definedName>
     <definedName name="solver_lhs5" localSheetId="4" hidden="1">Нэша!$D$9</definedName>
-    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Утопичная точка'!$E$6</definedName>
+    <definedName name="solver_lhs5" localSheetId="5" hidden="1">'Утопическая точка'!$E$6</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Цель 1'!$E$6</definedName>
     <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Цель 2'!$E$6</definedName>
     <definedName name="solver_lhs5" localSheetId="2" hidden="1">'Цель 3'!$E$6</definedName>
     <definedName name="solver_lhs5" localSheetId="6" hidden="1">'Эффективная граница'!$D$9</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$8</definedName>
     <definedName name="solver_lhs6" localSheetId="4" hidden="1">Нэша!$D$9</definedName>
-    <definedName name="solver_lhs6" localSheetId="5" hidden="1">'Утопичная точка'!$E$8</definedName>
+    <definedName name="solver_lhs6" localSheetId="5" hidden="1">'Утопическая точка'!$E$8</definedName>
     <definedName name="solver_lhs6" localSheetId="6" hidden="1">'Эффективная граница'!$D$9</definedName>
     <definedName name="solver_lhs7" localSheetId="3" hidden="1">'Многокритериальная задача'!$G$8</definedName>
     <definedName name="solver_lhs7" localSheetId="4" hidden="1">Нэша!$E$5</definedName>
-    <definedName name="solver_lhs7" localSheetId="5" hidden="1">'Утопичная точка'!$F$8</definedName>
+    <definedName name="solver_lhs7" localSheetId="5" hidden="1">'Утопическая точка'!$F$8</definedName>
     <definedName name="solver_lhs7" localSheetId="6" hidden="1">'Эффективная граница'!$E$5</definedName>
     <definedName name="solver_lhs8" localSheetId="3" hidden="1">'Многокритериальная задача'!$E$6</definedName>
     <definedName name="solver_lhs8" localSheetId="4" hidden="1">Нэша!$E$6</definedName>
-    <definedName name="solver_lhs8" localSheetId="5" hidden="1">'Утопичная точка'!$G$8</definedName>
+    <definedName name="solver_lhs8" localSheetId="5" hidden="1">'Утопическая точка'!$G$8</definedName>
     <definedName name="solver_lhs8" localSheetId="6" hidden="1">'Эффективная граница'!$E$6</definedName>
     <definedName name="solver_lhs9" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$8</definedName>
     <definedName name="solver_lhs9" localSheetId="4" hidden="1">Нэша!$E$8</definedName>
-    <definedName name="solver_lhs9" localSheetId="5" hidden="1">'Утопичная точка'!$F$8</definedName>
+    <definedName name="solver_lhs9" localSheetId="5" hidden="1">'Утопическая точка'!$F$8</definedName>
     <definedName name="solver_lhs9" localSheetId="6" hidden="1">'Эффективная граница'!$E$6</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
@@ -144,7 +144,7 @@
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
@@ -158,7 +158,7 @@
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">7</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">11</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">8</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
@@ -172,7 +172,7 @@
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Многокритериальная задача'!$E$8</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">Нэша!$E$13</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Утопичная точка'!$E$15</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Утопическая точка'!$E$15</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Цель 1'!$E$8</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Цель 2'!$D$9</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Цель 3'!$E$6</definedName>
@@ -204,7 +204,7 @@
     <definedName name="solver_rel11" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
@@ -248,18 +248,18 @@
     <definedName name="solver_rel9" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">целое</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Утопическая точка'!$C$10</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">целое</definedName>
     <definedName name="solver_rhs10" localSheetId="3" hidden="1">'Многокритериальная задача'!$G$10</definedName>
     <definedName name="solver_rhs10" localSheetId="4" hidden="1">Нэша!$F$10</definedName>
-    <definedName name="solver_rhs10" localSheetId="5" hidden="1">'Утопичная точка'!$G$10</definedName>
+    <definedName name="solver_rhs10" localSheetId="5" hidden="1">'Утопическая точка'!$G$10</definedName>
     <definedName name="solver_rhs11" localSheetId="4" hidden="1">Нэша!$G$10</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Многокритериальная задача'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Утопичная точка'!$C$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Утопическая точка'!$F$5:$F$6</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Цель 1'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Цель 2'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Цель 3'!$C$10</definedName>
@@ -273,33 +273,33 @@
     <definedName name="solver_rhs3" localSheetId="6" hidden="1">целое</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$5</definedName>
     <definedName name="solver_rhs4" localSheetId="4" hidden="1">Нэша!$C$10</definedName>
-    <definedName name="solver_rhs4" localSheetId="5" hidden="1">'Утопичная точка'!$F$5</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">'Утопическая точка'!$F$5</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Цель 1'!$F$5</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">'Цель 2'!$F$5</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">'Цель 3'!$F$5</definedName>
     <definedName name="solver_rhs4" localSheetId="6" hidden="1">'Эффективная граница'!$C$10</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$6</definedName>
     <definedName name="solver_rhs5" localSheetId="4" hidden="1">целое</definedName>
-    <definedName name="solver_rhs5" localSheetId="5" hidden="1">'Утопичная точка'!$F$6</definedName>
+    <definedName name="solver_rhs5" localSheetId="5" hidden="1">'Утопическая точка'!$F$6</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Цель 1'!$F$6</definedName>
     <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Цель 2'!$F$6</definedName>
     <definedName name="solver_rhs5" localSheetId="2" hidden="1">'Цель 3'!$F$6</definedName>
     <definedName name="solver_rhs5" localSheetId="6" hidden="1">целое</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$10</definedName>
     <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="5" hidden="1">'Утопичная точка'!$E$10</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">'Утопическая точка'!$E$10</definedName>
     <definedName name="solver_rhs6" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">'Многокритериальная задача'!$G$10</definedName>
     <definedName name="solver_rhs7" localSheetId="4" hidden="1">Нэша!$F$5</definedName>
-    <definedName name="solver_rhs7" localSheetId="5" hidden="1">'Утопичная точка'!$F$10</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">'Утопическая точка'!$F$10</definedName>
     <definedName name="solver_rhs7" localSheetId="6" hidden="1">'Эффективная граница'!$F$5</definedName>
     <definedName name="solver_rhs8" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$6</definedName>
     <definedName name="solver_rhs8" localSheetId="4" hidden="1">Нэша!$F$6</definedName>
-    <definedName name="solver_rhs8" localSheetId="5" hidden="1">'Утопичная точка'!$G$10</definedName>
+    <definedName name="solver_rhs8" localSheetId="5" hidden="1">'Утопическая точка'!$G$10</definedName>
     <definedName name="solver_rhs8" localSheetId="6" hidden="1">'Эффективная граница'!$F$6</definedName>
     <definedName name="solver_rhs9" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$10</definedName>
     <definedName name="solver_rhs9" localSheetId="4" hidden="1">Нэша!$E$10</definedName>
-    <definedName name="solver_rhs9" localSheetId="5" hidden="1">'Утопичная точка'!$F$10</definedName>
+    <definedName name="solver_rhs9" localSheetId="5" hidden="1">'Утопическая точка'!$F$10</definedName>
     <definedName name="solver_rhs9" localSheetId="6" hidden="1">'Эффективная граница'!$N$12</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
   <si>
     <t>Ограничение</t>
   </si>
@@ -508,14 +508,22 @@
   </si>
   <si>
     <t>H3</t>
+  </si>
+  <si>
+    <t>Утопическая точка</t>
+  </si>
+  <si>
+    <t>Расстояние до утопической точки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -647,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -696,6 +704,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -708,11 +722,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,11 +910,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="320619520"/>
-        <c:axId val="805188672"/>
+        <c:axId val="690049024"/>
+        <c:axId val="690402944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="320619520"/>
+        <c:axId val="690049024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,7 +924,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="805188672"/>
+        <c:crossAx val="690402944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -917,7 +932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="805188672"/>
+        <c:axId val="690402944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +962,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320619520"/>
+        <c:crossAx val="690049024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,23 +1338,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1349,8 +1364,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1507,23 +1522,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1533,8 +1548,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1682,23 +1697,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1708,8 +1723,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1858,23 +1873,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1884,8 +1899,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1983,11 +1998,11 @@
       <c r="D9" s="14">
         <v>165</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2059,23 +2074,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2085,8 +2100,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -2184,11 +2199,11 @@
       <c r="D9" s="14">
         <v>174</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2237,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
@@ -2252,7 +2267,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2271,23 +2286,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2297,8 +2312,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -2313,9 +2328,9 @@
       <c r="D5" s="13">
         <v>0.05</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="18">
         <f>SUMPRODUCT(B5:D5,B9:D9)</f>
-        <v>60.000000012694436</v>
+        <v>59.999999956321062</v>
       </c>
       <c r="F5" s="13">
         <v>60</v>
@@ -2334,9 +2349,9 @@
       <c r="D6" s="13">
         <v>0</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="18">
         <f>SUMPRODUCT(B6:D6,B9:D9)</f>
-        <v>26.999976559258108</v>
+        <v>32.01773782302552</v>
       </c>
       <c r="F6" s="13">
         <v>40</v>
@@ -2372,35 +2387,35 @@
       </c>
       <c r="E8" s="15">
         <f>SUMPRODUCT(B8:D8,B9:D9)</f>
-        <v>4365</v>
-      </c>
-      <c r="F8" s="16">
+        <v>4380.2660647246466</v>
+      </c>
+      <c r="F8" s="24">
         <f>D9</f>
-        <v>194.99976711591299</v>
+        <v>219.73393178103839</v>
       </c>
       <c r="G8" s="17">
         <f>-E6</f>
-        <v>-26.999976559258108</v>
+        <v>-32.01773782302552</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="23">
-        <v>14.99976584646973</v>
-      </c>
-      <c r="C9" s="23">
-        <v>240.00023389964161</v>
-      </c>
-      <c r="D9" s="23">
-        <v>194.99976711591299</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="B9" s="19">
+        <v>60.088689115127586</v>
+      </c>
+      <c r="C9" s="19">
+        <v>200</v>
+      </c>
+      <c r="D9" s="19">
+        <v>219.73393178103839</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2423,11 +2438,11 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" s="15">
@@ -2437,7 +2452,7 @@
         <v>400</v>
       </c>
       <c r="G12" s="17">
-        <v>20</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2446,9 +2461,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15">
-        <f>(E8 -E12)^2 + (F8-F12)^2 +(E6-G12)^2</f>
-        <v>80099.095154360082</v>
+      <c r="E15" s="25">
+        <f>(E8 -E12)^2 + (F8-F12)^2 +(G8-G12)^2</f>
+        <v>64863.859350150189</v>
       </c>
     </row>
   </sheetData>
@@ -2508,18 +2523,18 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="L3">
@@ -2533,7 +2548,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2543,8 +2558,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
       <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
@@ -2764,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2950,17 +2965,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="21">
-        <f>'Утопичная точка'!E15</f>
-        <v>80099.095154360082</v>
-      </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="B9" s="26">
+        <f>'Утопическая точка'!E15</f>
+        <v>64863.859350150189</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Прикладные модели оптимизации/лаб 3 вариант 14.xlsx
+++ b/Прикладные модели оптимизации/лаб 3 вариант 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Цель 1" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Многокритериальная задача'!$B$9</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">Нэша!$B$9</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Утопическая точка'!$C$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Утопическая точка'!$B$9:$D$9</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Цель 1'!$B$9</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Цель 2'!$B$9</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">'Цель 3'!$B$9</definedName>
@@ -72,14 +72,14 @@
     <definedName name="solver_lhs11" localSheetId="4" hidden="1">Нэша!$G$8</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Многокритериальная задача'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">Нэша!$B$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Утопическая точка'!$E$5:$E$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Утопическая точка'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Цель 1'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Цель 2'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">'Цель 3'!$C$9</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Эффективная граница'!$B$9</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Многокритериальная задача'!$D$9</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">Нэша!$C$9</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Утопическая точка'!$D$9</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Утопическая точка'!$E$5:$E$6</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Цель 1'!$D$9</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Цель 2'!$D$9</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">'Цель 3'!$D$9</definedName>
@@ -158,7 +158,7 @@
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">7</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">11</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">5</definedName>
@@ -172,7 +172,7 @@
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Многокритериальная задача'!$E$8</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">Нэша!$E$13</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Утопическая точка'!$E$15</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Утопическая точка'!$G$5</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Цель 1'!$E$8</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Цель 2'!$D$9</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">'Цель 3'!$E$6</definedName>
@@ -193,7 +193,7 @@
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">4</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
@@ -204,14 +204,14 @@
     <definedName name="solver_rel11" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">4</definedName>
-    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
@@ -248,25 +248,25 @@
     <definedName name="solver_rel9" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">целое</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'Утопическая точка'!$C$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">целое</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">целое</definedName>
     <definedName name="solver_rhs10" localSheetId="3" hidden="1">'Многокритериальная задача'!$G$10</definedName>
     <definedName name="solver_rhs10" localSheetId="4" hidden="1">Нэша!$F$10</definedName>
-    <definedName name="solver_rhs10" localSheetId="5" hidden="1">'Утопическая точка'!$G$10</definedName>
+    <definedName name="solver_rhs10" localSheetId="5" hidden="1">'Утопическая точка'!#REF!</definedName>
     <definedName name="solver_rhs11" localSheetId="4" hidden="1">Нэша!$G$10</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">'Многокритериальная задача'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Утопическая точка'!$F$5:$F$6</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'Утопическая точка'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Цель 1'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Цель 2'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">'Цель 3'!$C$10</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">целое</definedName>
-    <definedName name="solver_rhs3" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'Утопическая точка'!$F$5:$F$6</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
@@ -287,19 +287,19 @@
     <definedName name="solver_rhs5" localSheetId="6" hidden="1">целое</definedName>
     <definedName name="solver_rhs6" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$10</definedName>
     <definedName name="solver_rhs6" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_rhs6" localSheetId="5" hidden="1">'Утопическая точка'!$E$10</definedName>
+    <definedName name="solver_rhs6" localSheetId="5" hidden="1">'Утопическая точка'!#REF!</definedName>
     <definedName name="solver_rhs6" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs7" localSheetId="3" hidden="1">'Многокритериальная задача'!$G$10</definedName>
     <definedName name="solver_rhs7" localSheetId="4" hidden="1">Нэша!$F$5</definedName>
-    <definedName name="solver_rhs7" localSheetId="5" hidden="1">'Утопическая точка'!$F$10</definedName>
+    <definedName name="solver_rhs7" localSheetId="5" hidden="1">'Утопическая точка'!#REF!</definedName>
     <definedName name="solver_rhs7" localSheetId="6" hidden="1">'Эффективная граница'!$F$5</definedName>
     <definedName name="solver_rhs8" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$6</definedName>
     <definedName name="solver_rhs8" localSheetId="4" hidden="1">Нэша!$F$6</definedName>
-    <definedName name="solver_rhs8" localSheetId="5" hidden="1">'Утопическая точка'!$G$10</definedName>
+    <definedName name="solver_rhs8" localSheetId="5" hidden="1">'Утопическая точка'!#REF!</definedName>
     <definedName name="solver_rhs8" localSheetId="6" hidden="1">'Эффективная граница'!$F$6</definedName>
     <definedName name="solver_rhs9" localSheetId="3" hidden="1">'Многокритериальная задача'!$F$10</definedName>
     <definedName name="solver_rhs9" localSheetId="4" hidden="1">Нэша!$E$10</definedName>
-    <definedName name="solver_rhs9" localSheetId="5" hidden="1">'Утопическая точка'!$F$10</definedName>
+    <definedName name="solver_rhs9" localSheetId="5" hidden="1">'Утопическая точка'!#REF!</definedName>
     <definedName name="solver_rhs9" localSheetId="6" hidden="1">'Эффективная граница'!$N$12</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
@@ -382,7 +382,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
   <si>
     <t>Ограничение</t>
   </si>
@@ -456,9 +456,6 @@
     <t>Утопичная точка</t>
   </si>
   <si>
-    <t>Расстояние до утопичной точки</t>
-  </si>
-  <si>
     <t>Эффективная граница</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>Расстояние до утопической точки</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
   </si>
 </sst>
 </file>
@@ -522,8 +522,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -557,7 +557,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -618,6 +618,18 @@
         <bgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -655,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -710,6 +722,10 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,13 +738,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -910,11 +936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="690049024"/>
-        <c:axId val="690402944"/>
+        <c:axId val="673933312"/>
+        <c:axId val="715568768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="690049024"/>
+        <c:axId val="673933312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +950,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="690402944"/>
+        <c:crossAx val="715568768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -932,7 +958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="690402944"/>
+        <c:axId val="715568768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +988,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="690049024"/>
+        <c:crossAx val="673933312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1338,23 +1364,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1364,8 +1390,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1490,7 +1516,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="A28" sqref="A27:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,23 +1548,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1548,8 +1574,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1666,7 +1692,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1697,23 +1723,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1723,8 +1749,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1873,23 +1899,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1899,8 +1925,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -1998,11 +2024,11 @@
       <c r="D9" s="14">
         <v>165</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2074,23 +2100,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2100,8 +2126,8 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -2199,11 +2225,11 @@
       <c r="D9" s="14">
         <v>174</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2250,10 +2276,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,7 +2293,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2286,23 +2312,23 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2312,8 +2338,11 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -2330,10 +2359,14 @@
       </c>
       <c r="E5" s="18">
         <f>SUMPRODUCT(B5:D5,B9:D9)</f>
-        <v>59.999999956321062</v>
+        <v>60</v>
       </c>
       <c r="F5" s="13">
         <v>60</v>
+      </c>
+      <c r="G5" s="21">
+        <f>(E8-E11)*(E8-E11)+(F8-F11)*(F8-F11)+(G8-G11)*(G8-G11)</f>
+        <v>64944</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2351,7 +2384,7 @@
       </c>
       <c r="E6" s="18">
         <f>SUMPRODUCT(B6:D6,B9:D9)</f>
-        <v>32.01773782302552</v>
+        <v>32</v>
       </c>
       <c r="F6" s="13">
         <v>40</v>
@@ -2387,15 +2420,15 @@
       </c>
       <c r="E8" s="15">
         <f>SUMPRODUCT(B8:D8,B9:D9)</f>
-        <v>4380.2660647246466</v>
-      </c>
-      <c r="F8" s="24">
+        <v>4380</v>
+      </c>
+      <c r="F8" s="20">
         <f>D9</f>
-        <v>219.73393178103839</v>
+        <v>220</v>
       </c>
       <c r="G8" s="17">
         <f>-E6</f>
-        <v>-32.01773782302552</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2403,19 +2436,23 @@
         <v>13</v>
       </c>
       <c r="B9" s="19">
-        <v>60.088689115127586</v>
+        <v>60</v>
       </c>
       <c r="C9" s="19">
         <v>200</v>
       </c>
       <c r="D9" s="19">
-        <v>219.73393178103839</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+        <v>220</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -2426,54 +2463,30 @@
         <v>200</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="15">
-        <v>4365</v>
-      </c>
-      <c r="F10" s="16">
-        <v>165</v>
-      </c>
-      <c r="G10" s="17">
-        <f>-27</f>
-        <v>-27</v>
-      </c>
+      <c r="E10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E12" s="15">
+      <c r="E11" s="30">
         <v>4560</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F11" s="31">
         <v>400</v>
       </c>
-      <c r="G12" s="17">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E15" s="25">
-        <f>(E8 -E12)^2 + (F8-F12)^2 +(G8-G12)^2</f>
-        <v>64863.859350150189</v>
+      <c r="G11" s="32">
+        <v>-20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E11:G11"/>
+  <mergeCells count="5">
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2495,7 +2508,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2513,28 +2526,28 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="L3">
@@ -2548,7 +2561,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2558,10 +2571,10 @@
       <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L4">
         <v>11</v>
@@ -2790,30 +2803,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -2836,7 +2849,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2859,7 +2872,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2896,7 +2909,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>9</v>
@@ -2919,7 +2932,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2942,7 +2955,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>10</v>
@@ -2965,11 +2978,11 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="26">
-        <f>'Утопическая точка'!E15</f>
-        <v>64863.859350150189</v>
+        <f>'Утопическая точка'!G5</f>
+        <v>64944</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
